--- a/05_Tag 05/PA-Arbeitszeiten_0.5_Cvetkovic_David.xlsx
+++ b/05_Tag 05/PA-Arbeitszeiten_0.5_Cvetkovic_David.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fussball-Webapplikation\05_Tag 05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{349AD13B-22C0-4F6A-B2F9-DB2930363C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B252DFB-D77F-4C3F-A5E8-2A6C289E0B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{60C6E820-592A-40C4-8B41-F60F494C4260}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,7 +585,9 @@
       <c r="C9" s="6">
         <v>0.33680555555555558</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="6">
+        <v>0.49652777777777773</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>

--- a/05_Tag 05/PA-Arbeitszeiten_0.5_Cvetkovic_David.xlsx
+++ b/05_Tag 05/PA-Arbeitszeiten_0.5_Cvetkovic_David.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fussball-Webapplikation\05_Tag 05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B252DFB-D77F-4C3F-A5E8-2A6C289E0B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9821C6-CCE4-46E1-813A-9AAB95E20DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{60C6E820-592A-40C4-8B41-F60F494C4260}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,7 +588,9 @@
       <c r="D9" s="6">
         <v>0.49652777777777773</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="6">
+        <v>0.5180555555555556</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>

--- a/05_Tag 05/PA-Arbeitszeiten_0.5_Cvetkovic_David.xlsx
+++ b/05_Tag 05/PA-Arbeitszeiten_0.5_Cvetkovic_David.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fussball-Webapplikation\05_Tag 05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9821C6-CCE4-46E1-813A-9AAB95E20DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBABF7B-F76A-4DC1-A924-0DC83426434F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{60C6E820-592A-40C4-8B41-F60F494C4260}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,8 +591,12 @@
       <c r="E9" s="6">
         <v>0.5180555555555556</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="F9" s="6">
+        <v>0.68680555555555556</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.32847222222222222</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
